--- a/development_tracker.xlsx
+++ b/development_tracker.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPL\Legacy&amp;Looms\code_base\legacy-and-looms-docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CEB32D-D3DC-43ED-98BF-A43BD24F218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/development_tracker.xlsx
+++ b/development_tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPL\Legacy&amp;Looms\code_base\legacy-and-looms-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CEB32D-D3DC-43ED-98BF-A43BD24F218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF57F16C-9088-4C51-9096-34CAEA729BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chandu UserStories" sheetId="1" r:id="rId1"/>
+    <sheet name="Dp UserStories" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Customer can browse the available items in the app</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,15 +50,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +72,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,10 +375,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:C17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD98B3-B546-44A2-8C85-557486A5FF65}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/development_tracker.xlsx
+++ b/development_tracker.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPL\Legacy&amp;Looms\code_base\legacy-and-looms-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF57F16C-9088-4C51-9096-34CAEA729BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6176B60B-50E9-4C26-9BB6-07739F8BE411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chandu UserStories" sheetId="1" r:id="rId1"/>
     <sheet name="Dp UserStories" sheetId="2" r:id="rId2"/>
+    <sheet name="Tracker" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>S.No</t>
   </si>
@@ -35,6 +36,72 @@
   </si>
   <si>
     <t>Customer can browse the available items in the app</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Updating chandu userstories</t>
+  </si>
+  <si>
+    <t>Chandu</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>Updating Dp userstories</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Setting up Database in GCP</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Setting up storage bucket in GCP</t>
+  </si>
+  <si>
+    <t>Setting up workspace</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuring GCP Project </t>
+  </si>
+  <si>
+    <t>Action Items</t>
+  </si>
+  <si>
+    <t>Creating Db tables</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Create a base server applcation</t>
+  </si>
+  <si>
+    <t>Test server in local</t>
+  </si>
+  <si>
+    <t>Migrate server to GCP App Engine</t>
   </si>
 </sst>
 </file>
@@ -91,10 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +448,7 @@
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,14 +567,388 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD98B3-B546-44A2-8C85-557486A5FF65}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000Sensitivity: General&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C70A2E-4F12-4DF0-A560-6828A86A505D}">
+  <dimension ref="B2:G17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
